--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica1.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0102B76D-D551-4D8A-8194-10B8CDE8B77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E467F-0F90-4F8D-8EE8-38A86D1A810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{1B9CF058-2DBB-4A73-920C-B4F67E71B6AC}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>DNI</t>
   </si>
@@ -113,14 +103,76 @@
   </si>
   <si>
     <t>3456858S</t>
+  </si>
+  <si>
+    <t>5 Poner en 3FN</t>
+  </si>
+  <si>
+    <t>CodTienda</t>
+  </si>
+  <si>
+    <t>DirecTienda</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>P.Martin</t>
+  </si>
+  <si>
+    <t>100A</t>
+  </si>
+  <si>
+    <t>Avd Mayor</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L.Sanz</t>
+  </si>
+  <si>
+    <t>D.Diaz</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>200B</t>
+  </si>
+  <si>
+    <t>C/Sur 13</t>
+  </si>
+  <si>
+    <t>E.Lopez</t>
+  </si>
+  <si>
+    <t>300C</t>
+  </si>
+  <si>
+    <t>Pla. Central</t>
+  </si>
+  <si>
+    <t>F.Monte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -160,10 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B66A3A-9EF8-418F-BA6B-A0A11CEF154B}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +994,281 @@
         <v>24</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>33456456</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="3">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>44556689</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="3">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>99771122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="3">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>33456456</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="3">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11223344</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="3">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>99887766</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="3">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11223344</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="3">
+        <v>38902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>99887766</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="3">
+        <v>38902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>44556689</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="3">
+        <v>38902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>33456456</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="3">
+        <v>38965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>33456456</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>44556689</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>99771122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>11223344</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>99887766</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica1.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E467F-0F90-4F8D-8EE8-38A86D1A810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2757824-7282-4D2F-9A14-35EC4A64CCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{1B9CF058-2DBB-4A73-920C-B4F67E71B6AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B9CF058-2DBB-4A73-920C-B4F67E71B6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
   <si>
     <t>DNI</t>
   </si>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B66A3A-9EF8-418F-BA6B-A0A11CEF154B}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,45 +1226,87 @@
       <c r="B64" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>33456456</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>33456456</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44556689</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>44556689</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>99771122</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>99771122</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11223344</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>11223344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>99887766</v>
       </c>
       <c r="B69" t="s">
         <v>43</v>
+      </c>
+      <c r="D69">
+        <v>99887766</v>
       </c>
     </row>
   </sheetData>
